--- a/docs/ST4/ST4_20.08.2024_output.xlsx
+++ b/docs/ST4/ST4_20.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K125"/>
+  <dimension ref="A1:N125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,1708 +505,2021 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731441589.8390117</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731441590.3030732</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731441589.8390117.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731441590.3030732.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>266.02</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>266.75</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.7300000000000182</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731441590.5760756</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731441592.3875008</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731441590.5760756.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731441592.3875008.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>265.87</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>264.49</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-1.379999999999995</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731441596.1980045</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731441596.5144658</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731441596.1980045.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731441596.5144658.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>268.07</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>267.35</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.7199999999999704</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731441597.3289814</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731441598.159106</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731441597.3289814.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731441598.159106.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>268.45</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>268.01</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.4399999999999977</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731441599.385645</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731441602.6993768</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731441599.385645.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731441602.6993768.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>269.4</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>268.58</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.8199999999999932</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731441603.00705</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731441604.02686</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731441603.00705.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731441604.02686.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>268.96</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>267.15</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>1.810000000000002</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731441604.162275</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731441604.250108</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731441604.162275.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731441604.250108.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>266.83</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>267.31</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.4800000000000182</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731441605.563277</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731441605.887565</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731441605.563277.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731441605.887565.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>266.78</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>267.37</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.5900000000000318</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731441608.3510454</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731441608.657831</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731441608.3510454.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731441608.657831.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>266.02</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>266.75</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.7300000000000182</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731441608.8997414</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731441609.556718</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731441608.8997414.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731441609.556718.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>265.87</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>264.49</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-1.379999999999995</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731441612.8157086</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731441613.0635166</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731441612.8157086.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731441613.0635166.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>268.07</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>267.35</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.7199999999999704</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731441613.7398117</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731441614.4414842</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731441613.7398117.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731441614.4414842.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>268.45</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>268.01</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.4399999999999977</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731441615.5128722</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731441618.3432832</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731441615.5128722.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731441618.3432832.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>269.4</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>268.58</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.8199999999999932</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731441618.6328285</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731441619.5496273</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731441618.6328285.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731441619.5496273.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>268.96</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>267.15</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>1.810000000000002</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.67</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731441619.6672878</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731441619.7510364</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731441619.6672878.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731441619.7510364.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>266.83</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>267.31</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.4800000000000182</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731441620.9506524</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731441621.240815</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/SBER1731441620.9506524.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/SBER1731441621.240815.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>266.78</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>267.37</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.5900000000000318</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731441623.9770398</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731441624.268318</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/SBER1731441623.9770398.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/SBER1731441624.268318.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>266.26</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>266.86</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.6000000000000227</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731441624.6648023</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731441625.2858255</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/SBER1731441624.6648023.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/SBER1731441625.2858255.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>265.88</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>264.85</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-1.029999999999973</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.39</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731441630.839067</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731441631.5023632</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/SBER1731441630.839067.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/SBER1731441631.5023632.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>268.64</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>268.83</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-0.1899999999999977</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731441638.0421493</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731441638.1377735</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/SBER1731441638.0421493.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/SBER1731441638.1377735.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>267.1</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>267.46</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.3599999999999568</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731441640.972527</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731441641.0922108</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731441640.972527.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731441641.0922108.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>126.68</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>126.48</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.2000000000000028</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731441641.1756337</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731441641.261782</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731441641.1756337.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731441641.261782.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>126.79</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>126.51</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731441641.9467452</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731441642.5681355</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731441641.9467452.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731441642.5681355.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>126.77</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>126.05</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.7199999999999989</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.5700000000000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731441642.6301115</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731441642.9064682</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731441642.6301115.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731441642.9064682.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>126.06</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>126.37</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.3100000000000023</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731441643.6041348</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731441643.8559282</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731441643.6041348.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731441643.8559282.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>125.83</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>126.11</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731441645.411455</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731441645.5061893</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731441645.411455.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731441645.5061893.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>126.92</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>126.82</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.1000000000000085</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731441646.9502192</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731441647.1196241</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731441646.9502192.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731441647.1196241.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>127.27</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>127.05</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731441647.3446841</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731441647.5568323</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731441647.3446841.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731441647.5568323.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>127.4</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>127.14</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.2600000000000051</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731441648.2414625</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731441648.639305</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731441648.2414625.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731441648.639305.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>127.56</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>127.38</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731441651.4417787</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731441653.841863</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731441651.4417787.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731441653.841863.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>127.46</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>126.74</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.7199999999999989</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731441654.8080251</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731441654.977217</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731441654.8080251.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731441654.977217.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>126.32</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>126.45</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.1300000000000097</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731441655.6164186</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731441656.0268312</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731441655.6164186.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731441656.0268312.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>126.3</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>126.32</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.01999999999999602</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731441656.4766948</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731441656.7991323</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731441656.4766948.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731441656.7991323.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>126.05</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>126.19</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.1400000000000006</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731441657.6637404</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731441658.3610501</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731441657.6637404.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731441658.3610501.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>126.06</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>126.06</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2199,2090 +2527,2477 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731441659.5398533</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731441659.5398533.png</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731441659.5398533.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>125.96</v>
       </c>
-      <c r="J37" t="n">
-        <v>125.96</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
+      <c r="L37" t="n">
+        <v>125.95</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.009999999999990905</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731441661.3865082</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731441661.8630404</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731441661.3865082.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731441661.8630404.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>6095.5</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>6094</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-1.5</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731441662.2421362</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731441662.972047</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731441662.2421362.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731441662.972047.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>6067</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>6078.5</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>11.5</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731441667.7383716</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731441668.0102377</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731441667.7383716.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731441668.0102377.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>6144</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>6158</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-14</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731441670.7595296</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731441671.4106536</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731441670.7595296.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731441671.4106536.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>6177</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>6184.5</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-7.5</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731441675.0683587</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731441676.3493493</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731441675.0683587.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731441676.3493493.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>6219.5</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>6201</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-18.5</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731441678.1495833</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731441678.1495833.png</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731441678.1495833.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>6224.5</v>
       </c>
-      <c r="J43" t="n">
-        <v>6224.5</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
+      <c r="L43" t="n">
+        <v>6237</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731441679.0195384</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731441679.3234262</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731441679.0195384.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731441679.3234262.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>485.95</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>485.6</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.3499999999999659</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731441680.5381708</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731441680.7437298</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731441680.5381708.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731441680.7437298.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>482.55</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>482.85</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.3000000000000114</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731441681.4076936</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731441681.9782927</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731441681.4076936.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731441681.9782927.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>481.6</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>481.05</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.5500000000000114</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731441687.5167186</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731441689.3605657</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731441687.5167186.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731441689.3605657.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>485.4</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>487.35</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-1.950000000000045</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731441689.586691</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731441691.6909328</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731441689.586691.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731441691.6909328.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>488.4</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>486.95</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>1.449999999999989</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731441694.0126994</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731441694.872623</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731441694.0126994.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731441694.872623.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>487.45</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>486.95</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731441698.7261972</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731441700.242297</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731441698.7261972.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731441700.242297.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>212.76</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>210.38</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-2.379999999999995</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-1.12</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731441700.394097</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731441701.540446</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731441700.394097.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731441701.540446.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>210.47</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>211.43</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-0.960000000000008</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.46</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731441704.921791</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731441705.122598</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731441704.921791.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731441705.122598.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>214.36</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>214.02</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.3400000000000034</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731441711.7872343</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731441712.551759</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731441711.7872343.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731441712.551759.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>212.14</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>212.38</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.2400000000000091</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731441722.502718</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731441722.5545933</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731441722.502718.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731441722.5545933.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>1021.2</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>1021</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.2000000000000455</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731441722.889317</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731441723.049487</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731441722.889317.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731441723.049487.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>1022.8</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>1020.6</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>2.199999999999932</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731441724.7385426</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731441725.4459205</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731441724.7385426.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731441725.4459205.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>1023.6</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>1024.8</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-1.199999999999932</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731441725.7852437</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731441726.13277</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731441725.7852437.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731441726.13277.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>1028.6</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>1029.4</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-0.8000000000001819</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731441730.1439037</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731441730.800321</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731441730.1439037.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731441730.800321.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>1019.4</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>1021</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>1.600000000000023</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731441734.348911</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731441734.6576812</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/CNY1731441734.348911.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/CNY1731441734.6576812.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>12.143</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>12.13</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-0.0129999999999999</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731441734.7785041</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731441735.093277</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/CNY1731441734.7785041.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/CNY1731441735.093277.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>12.109</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>12.123</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.01399999999999935</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731441735.2971668</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731441735.6197124</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/CNY1731441735.2971668.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/CNY1731441735.6197124.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>12.126</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>12.139</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-0.0129999999999999</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731441737.0742643</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731441737.7814214</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/CNY1731441737.0742643.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/CNY1731441737.7814214.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>12.166</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>12.165</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.001000000000001222</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731441740.0568554</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731441740.8542986</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/CNY1731441740.0568554.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/CNY1731441740.8542986.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>12.17</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>12.164</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.006000000000000227</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731441741.4172099</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731441742.3180854</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/CNY1731441741.4172099.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/CNY1731441742.3180854.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>12.175</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>12.179</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-0.003999999999999559</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731441743.391658</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731441744.8342285</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/CNY1731441743.391658.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/CNY1731441744.8342285.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>12.207</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>12.209</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-0.001999999999998892</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731441745.9817595</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731441748.7428637</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/CNY1731441745.9817595.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/CNY1731441748.7428637.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>12.223</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>12.228</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>-0.004999999999999005</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731441752.3359847</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731441752.6303487</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731441752.3359847.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731441752.6303487.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>125.24</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>125.44</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.2000000000000028</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731441752.9642048</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731441753.3404503</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731441752.9642048.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731441753.3404503.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>124.78</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>124.88</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.09999999999999432</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731441754.2563093</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731441755.6523323</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731441754.2563093.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731441755.6523323.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>124.48</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>125.02</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>-0.539999999999992</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-0.43</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731441764.2967567</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731441764.4325254</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731441764.2967567.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731441764.4325254.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>124.68</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>124.7</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.01999999999999602</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731441766.7462401</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731441766.9984598</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731441766.7462401.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731441766.9984598.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>124.58</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>124.74</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.1599999999999966</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731441767.2344575</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731441768.8510544</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731441767.2344575.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731441768.8510544.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>124.48</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>124.42</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>-0.06000000000000227</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731441772.1243305</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731441772.1776953</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731441772.1243305.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731441772.1776953.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>156.48</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>156.62</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.1400000000000148</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731441772.2345426</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731441773.6244464</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731441772.2345426.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731441773.6244464.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>156.44</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>156.46</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.02000000000001023</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731441777.2754886</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731441777.767379</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731441777.2754886.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731441777.767379.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>158.44</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>158.26</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731441778.1655428</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731441779.319487</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731441778.1655428.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731441779.319487.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>158.98</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>158.18</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.7999999999999829</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731441780.050597</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731441781.2619667</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731441780.050597.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731441781.2619667.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>158.52</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>158.34</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731441785.4211495</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731441785.6843898</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731441785.4211495.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731441785.6843898.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>157.34</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>157.6</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.2599999999999909</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731441786.563676</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731441787.27976</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731441786.563676.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731441787.27976.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>157.34</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>157.34</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4290,1216 +5005,1441 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731441790.4361033</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731441791.041493</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731441790.4361033.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731441791.041493.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>47.53</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>47.635</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.1049999999999969</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731441791.0644338</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731441793.0021489</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731441791.0644338.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731441793.0021489.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>47.635</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>47.34</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.2949999999999946</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.62</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731441802.943167</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731441804.8826303</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731441802.943167.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731441804.8826303.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>47.305</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>47.005</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>-0.2999999999999972</v>
+      </c>
+      <c r="N82" t="n">
+        <v>-0.63</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731441804.8985827</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731441805.4108696</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731441804.8985827.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731441805.4108696.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>47.005</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>47.115</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>-0.1099999999999994</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731441811.5439904</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731441813.987229</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731441811.5439904.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731441813.987229.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>1343.8</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>1349</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>-5.200000000000045</v>
+      </c>
+      <c r="N84" t="n">
+        <v>-0.39</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731441814.3878958</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731441817.5644035</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731441814.3878958.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731441817.5644035.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>1354.4</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>1347.4</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>7</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731441822.7321198</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731441823.2814083</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731441822.7321198.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731441823.2814083.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>1344</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>1344.6</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>0.5999999999999091</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731441825.131221</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731441827.1262152</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731441825.131221.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731441827.1262152.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>56.78</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>56.02</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>-0.759999999999998</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-1.34</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731441827.1431704</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731441828.0553904</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731441827.1431704.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731441828.0553904.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>56.02</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>55.93</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.09000000000000341</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731441838.93547</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731441839.8296826</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731441838.93547.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731441839.8296826.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>56.13</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>56.08</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>-0.05000000000000426</v>
+      </c>
+      <c r="N89" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731441840.1895459</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731441840.1895459.png</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731441840.1895459.png</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>55.93</v>
       </c>
-      <c r="J90" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0</v>
+      <c r="L90" t="n">
+        <v>55.92</v>
+      </c>
+      <c r="M90" t="n">
+        <v>-0.00999999999999801</v>
+      </c>
+      <c r="N90" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731441846.6392562</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731441846.7356055</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731441846.6392562.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731441846.7356055.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>99.40000000000001</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>99.31999999999999</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>0.08000000000001251</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731441848.3918524</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731441850.3557434</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731441848.3918524.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731441850.3557434.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>99.43000000000001</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>100.16</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>-0.7299999999999898</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-0.73</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731441853.5544608</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731441854.005921</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731441853.5544608.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731441854.005921.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>100.37</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>100.05</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>0.3200000000000074</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731441858.4256923</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731441858.5676906</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731441858.4256923.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731441858.5676906.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>99.42</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>99.63</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>0.2099999999999937</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731441859.8942487</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731441860.3838854</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731441859.8942487.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731441860.3838854.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>99.44</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>99.5</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731441862.975257</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731441863.1697266</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/SELG1731441862.975257.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/SELG1731441863.1697266.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>51.61</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>51.76</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>0.1499999999999986</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731441865.473661</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731441865.9625065</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/SELG1731441865.473661.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/SELG1731441865.9625065.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>52.48</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>52.72</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>-0.240000000000002</v>
+      </c>
+      <c r="N97" t="n">
+        <v>-0.46</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731441866.4742954</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731441867.5610108</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/SELG1731441866.4742954.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/SELG1731441867.5610108.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>53.07</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>53.52</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>-0.4500000000000028</v>
+      </c>
+      <c r="N98" t="n">
+        <v>-0.8500000000000001</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731441868.7385588</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731441870.3685458</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/SELG1731441868.7385588.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/SELG1731441870.3685458.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>53.66</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>53.67</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>-0.01000000000000512</v>
+      </c>
+      <c r="N99" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731441874.5721664</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1731441875.5985386</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/SELG1731441874.5721664.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/SELG1731441875.5985386.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>53.69</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>53.41</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1731441876.0144577</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>1731441876.1423671</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>./test_images/SELG1731441876.0144577.png</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>./test_images/SELG1731441876.1423671.png</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>53.31</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>53.36</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>0.04999999999999716</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1731441877.5822358</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>1731441878.1665628</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>./test_images/SELG1731441877.5822358.png</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>./test_images/SELG1731441878.1665628.png</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>53.31</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>53.79</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>0.4799999999999969</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>1731441878.1825206</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>1731441878.671137</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>./test_images/SELG1731441878.1825206.png</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>./test_images/SELG1731441878.671137.png</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
         <v>53.79</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>53.82</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>-0.03000000000000114</v>
+      </c>
+      <c r="N103" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>1731441880.2801147</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>1731441881.2624671</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731441880.2801147.png</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731441881.2624671.png</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
         <v>148.3</v>
       </c>
-      <c r="J104" t="n">
+      <c r="L104" t="n">
         <v>148.3</v>
       </c>
-      <c r="K104" t="n">
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5507,1013 +6447,1202 @@
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>1731441892.3954515</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>1731441892.4759037</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731441892.3954515.png</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731441892.4759037.png</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
         <v>151.04</v>
       </c>
-      <c r="J105" t="n">
+      <c r="L105" t="n">
         <v>151.06</v>
       </c>
-      <c r="K105" t="n">
+      <c r="M105" t="n">
         <v>-0.02000000000001023</v>
+      </c>
+      <c r="N105" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>1731441894.7112644</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>1731441895.4196923</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731441894.7112644.png</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731441895.4196923.png</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
         <v>0.3005</v>
       </c>
-      <c r="J106" t="n">
+      <c r="L106" t="n">
         <v>0.2981</v>
       </c>
-      <c r="K106" t="n">
-        <v>-0.002399999999999958</v>
+      <c r="M106" t="n">
+        <v>-0.002400000000000013</v>
+      </c>
+      <c r="N106" t="n">
+        <v>-0.8</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>1731441897.1619494</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>1731441898.884847</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731441897.1619494.png</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731441898.884847.png</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
         <v>0.2958</v>
       </c>
-      <c r="J107" t="n">
+      <c r="L107" t="n">
         <v>0.2989</v>
       </c>
-      <c r="K107" t="n">
+      <c r="M107" t="n">
         <v>-0.003099999999999992</v>
+      </c>
+      <c r="N107" t="n">
+        <v>-1.05</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="n">
+        <v>106</v>
+      </c>
+      <c r="D108" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>1731441899.9335682</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>1731441904.1186037</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731441899.9335682.png</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731441904.1186037.png</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
         <v>0.3025</v>
       </c>
-      <c r="J108" t="n">
+      <c r="L108" t="n">
         <v>0.3035</v>
       </c>
-      <c r="K108" t="n">
+      <c r="M108" t="n">
         <v>-0.001000000000000001</v>
+      </c>
+      <c r="N108" t="n">
+        <v>-0.33</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" t="n">
+        <v>107</v>
+      </c>
+      <c r="D109" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>1731441904.1355305</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>./test_images/MRKP1731441904.1355305.png</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
+          <t>./test_images/MRKP1731441904.1355305.png</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
         <v>0.3035</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.3035</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0</v>
+      <c r="L109" t="n">
+        <v>0.3025</v>
+      </c>
+      <c r="M109" t="n">
+        <v>-0.001000000000000001</v>
+      </c>
+      <c r="N109" t="n">
+        <v>-0.33</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110" t="n">
+        <v>108</v>
+      </c>
+      <c r="D110" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>1731441906.5383394</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>1731441907.189229</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731441906.5383394.png</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731441907.189229.png</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
         <v>19.333</v>
       </c>
-      <c r="J110" t="n">
+      <c r="L110" t="n">
         <v>19.245</v>
       </c>
-      <c r="K110" t="n">
+      <c r="M110" t="n">
         <v>-0.08799999999999741</v>
+      </c>
+      <c r="N110" t="n">
+        <v>-0.46</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" t="n">
+        <v>109</v>
+      </c>
+      <c r="C111" t="n">
+        <v>109</v>
+      </c>
+      <c r="D111" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>1731441907.4402223</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>1731441907.6809988</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731441907.4402223.png</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731441907.6809988.png</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I111" t="n">
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
         <v>19.164</v>
       </c>
-      <c r="J111" t="n">
+      <c r="L111" t="n">
         <v>19.225</v>
       </c>
-      <c r="K111" t="n">
+      <c r="M111" t="n">
         <v>0.06099999999999994</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" t="n">
+        <v>110</v>
+      </c>
+      <c r="C112" t="n">
+        <v>110</v>
+      </c>
+      <c r="D112" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>1731441907.9948695</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>1731441908.559052</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731441907.9948695.png</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731441908.559052.png</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I112" t="n">
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
         <v>19.132</v>
       </c>
-      <c r="J112" t="n">
+      <c r="L112" t="n">
         <v>19.117</v>
       </c>
-      <c r="K112" t="n">
+      <c r="M112" t="n">
         <v>-0.01500000000000057</v>
+      </c>
+      <c r="N112" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B113" t="n">
+        <v>111</v>
+      </c>
+      <c r="C113" t="n">
+        <v>111</v>
+      </c>
+      <c r="D113" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>1731441912.1217039</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>1731441912.307786</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731441912.1217039.png</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731441912.307786.png</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I113" t="n">
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
         <v>19.392</v>
       </c>
-      <c r="J113" t="n">
+      <c r="L113" t="n">
         <v>19.36</v>
       </c>
-      <c r="K113" t="n">
+      <c r="M113" t="n">
         <v>0.03200000000000003</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" t="n">
+        <v>112</v>
+      </c>
+      <c r="C114" t="n">
+        <v>112</v>
+      </c>
+      <c r="D114" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>1731441913.1654122</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>1731441913.4405694</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731441913.1654122.png</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731441913.4405694.png</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
         <v>19.475</v>
       </c>
-      <c r="J114" t="n">
+      <c r="L114" t="n">
         <v>19.408</v>
       </c>
-      <c r="K114" t="n">
+      <c r="M114" t="n">
         <v>0.06700000000000017</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" t="n">
+        <v>113</v>
+      </c>
+      <c r="C115" t="n">
+        <v>113</v>
+      </c>
+      <c r="D115" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>1731441917.1604078</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>1731441917.3863795</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731441917.1604078.png</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731441917.3863795.png</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I115" t="n">
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
         <v>19.456</v>
       </c>
-      <c r="J115" t="n">
+      <c r="L115" t="n">
         <v>19.428</v>
       </c>
-      <c r="K115" t="n">
+      <c r="M115" t="n">
         <v>0.02799999999999869</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" t="n">
+        <v>114</v>
+      </c>
+      <c r="C116" t="n">
+        <v>114</v>
+      </c>
+      <c r="D116" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>1731441924.4383194</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>1731441924.720213</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731441924.4383194.png</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731441924.720213.png</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I116" t="n">
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
         <v>669.05</v>
       </c>
-      <c r="J116" t="n">
+      <c r="L116" t="n">
         <v>667.8</v>
       </c>
-      <c r="K116" t="n">
+      <c r="M116" t="n">
         <v>1.25</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" t="n">
+        <v>115</v>
+      </c>
+      <c r="C117" t="n">
+        <v>115</v>
+      </c>
+      <c r="D117" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>1731441925.8382902</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>1731441925.995893</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731441925.8382902.png</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731441925.995893.png</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I117" t="n">
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
         <v>663.25</v>
       </c>
-      <c r="J117" t="n">
+      <c r="L117" t="n">
         <v>663.75</v>
       </c>
-      <c r="K117" t="n">
+      <c r="M117" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" t="n">
+        <v>116</v>
+      </c>
+      <c r="C118" t="n">
+        <v>116</v>
+      </c>
+      <c r="D118" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>1731441926.381056</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>1731441926.8697746</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731441926.381056.png</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731441926.8697746.png</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="I118" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I118" t="n">
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
         <v>662.15</v>
       </c>
-      <c r="J118" t="n">
+      <c r="L118" t="n">
         <v>661.8</v>
       </c>
-      <c r="K118" t="n">
+      <c r="M118" t="n">
         <v>-0.3500000000000227</v>
+      </c>
+      <c r="N118" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" t="n">
+        <v>117</v>
+      </c>
+      <c r="C119" t="n">
+        <v>117</v>
+      </c>
+      <c r="D119" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>1731441928.7813814</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>1731441930.1523235</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731441928.7813814.png</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="H119" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731441930.1523235.png</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
+      <c r="I119" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I119" t="n">
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
         <v>658.8</v>
       </c>
-      <c r="J119" t="n">
+      <c r="L119" t="n">
         <v>661.55</v>
       </c>
-      <c r="K119" t="n">
+      <c r="M119" t="n">
         <v>2.75</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" t="n">
+        <v>118</v>
+      </c>
+      <c r="C120" t="n">
+        <v>118</v>
+      </c>
+      <c r="D120" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>1731441934.4377925</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>1731441934.8803859</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731441934.4377925.png</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="H120" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731441934.8803859.png</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
+      <c r="I120" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I120" t="n">
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
         <v>666.8</v>
       </c>
-      <c r="J120" t="n">
+      <c r="L120" t="n">
         <v>664</v>
       </c>
-      <c r="K120" t="n">
+      <c r="M120" t="n">
         <v>2.799999999999955</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" t="n">
+        <v>119</v>
+      </c>
+      <c r="C121" t="n">
+        <v>119</v>
+      </c>
+      <c r="D121" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>1731441939.6200728</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731441939.6200728.png</t>
         </is>
       </c>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731441939.6200728.png</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I121" t="n">
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
         <v>660.05</v>
       </c>
-      <c r="J121" t="n">
-        <v>660.05</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0</v>
+      <c r="L121" t="n">
+        <v>659.5</v>
+      </c>
+      <c r="M121" t="n">
+        <v>-0.5499999999999545</v>
+      </c>
+      <c r="N121" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B122" t="n">
+        <v>120</v>
+      </c>
+      <c r="C122" t="n">
+        <v>120</v>
+      </c>
+      <c r="D122" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>1731441941.642026</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>1731441941.8035457</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731441941.642026.png</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="H122" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731441941.8035457.png</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
+      <c r="I122" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I122" t="n">
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
         <v>143.29</v>
       </c>
-      <c r="J122" t="n">
+      <c r="L122" t="n">
         <v>142.49</v>
       </c>
-      <c r="K122" t="n">
+      <c r="M122" t="n">
         <v>0.7999999999999829</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" t="n">
+        <v>121</v>
+      </c>
+      <c r="C123" t="n">
+        <v>121</v>
+      </c>
+      <c r="D123" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>1731441942.8994699</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>1731441943.8925822</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731441942.8994699.png</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="H123" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731441943.8925822.png</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
+      <c r="I123" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I123" t="n">
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
         <v>139.17</v>
       </c>
-      <c r="J123" t="n">
+      <c r="L123" t="n">
         <v>138.2</v>
       </c>
-      <c r="K123" t="n">
+      <c r="M123" t="n">
         <v>-0.9699999999999989</v>
+      </c>
+      <c r="N123" t="n">
+        <v>-0.7000000000000001</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" t="n">
+        <v>122</v>
+      </c>
+      <c r="C124" t="n">
+        <v>122</v>
+      </c>
+      <c r="D124" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>1731441950.8145554</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>1731441951.7886374</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731441950.8145554.png</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="H124" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731441951.7886374.png</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
+      <c r="I124" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I124" t="n">
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
         <v>141.65</v>
       </c>
-      <c r="J124" t="n">
+      <c r="L124" t="n">
         <v>140.35</v>
       </c>
-      <c r="K124" t="n">
+      <c r="M124" t="n">
         <v>1.300000000000011</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" t="n">
+        <v>123</v>
+      </c>
+      <c r="C125" t="n">
+        <v>123</v>
+      </c>
+      <c r="D125" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>1731441956.045937</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>1731441957.312785</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731441956.045937.png</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="H125" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731441957.312785.png</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
+      <c r="I125" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I125" t="n">
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
         <v>138.64</v>
       </c>
-      <c r="J125" t="n">
+      <c r="L125" t="n">
         <v>137.92</v>
       </c>
-      <c r="K125" t="n">
+      <c r="M125" t="n">
         <v>-0.7199999999999989</v>
+      </c>
+      <c r="N125" t="n">
+        <v>-0.52</v>
       </c>
     </row>
   </sheetData>
@@ -6527,7 +7656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6556,6 +7685,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -6564,13 +7703,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.560000000000031</v>
+        <v>3.55000000000004</v>
       </c>
       <c r="C2" t="n">
         <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2373333333333354</v>
+        <v>0.2366666666666693</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="3">
@@ -6588,6 +7733,12 @@
       <c r="D3" t="n">
         <v>0.3291666666666704</v>
       </c>
+      <c r="E3" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -6604,6 +7755,12 @@
       <c r="D4" t="n">
         <v>-0.001999999999999558</v>
       </c>
+      <c r="E4" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -6620,6 +7777,12 @@
       <c r="D5" t="n">
         <v>0.02874999999999783</v>
       </c>
+      <c r="E5" t="n">
+        <v>0.4099999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -6636,6 +7799,12 @@
       <c r="D6" t="n">
         <v>0.5262500000000045</v>
       </c>
+      <c r="E6" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -6652,6 +7821,12 @@
       <c r="D7" t="n">
         <v>0.2257142857142875</v>
       </c>
+      <c r="E7" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -6668,6 +7843,12 @@
       <c r="D8" t="n">
         <v>0.01416666666666681</v>
       </c>
+      <c r="E8" t="n">
+        <v>0.4299999999999999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -6684,6 +7865,12 @@
       <c r="D9" t="n">
         <v>0.01666666666665151</v>
       </c>
+      <c r="E9" t="n">
+        <v>0.01999999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -6700,6 +7887,12 @@
       <c r="D10" t="n">
         <v>-0.02000000000000076</v>
       </c>
+      <c r="E10" t="n">
+        <v>-0.09000000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -6708,13 +7901,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-30</v>
+        <v>-42.5</v>
       </c>
       <c r="C11" t="n">
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>-5</v>
+        <v>-7.083333333333333</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.6799999999999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="12">
@@ -6724,13 +7923,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.949999999999932</v>
+        <v>6.399999999999977</v>
       </c>
       <c r="C12" t="n">
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>1.158333333333322</v>
+        <v>1.066666666666663</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="13">
@@ -6748,6 +7953,12 @@
       <c r="D13" t="n">
         <v>-0.01199999999999477</v>
       </c>
+      <c r="E13" t="n">
+        <v>-0.06000000000000003</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -6764,6 +7975,12 @@
       <c r="D14" t="n">
         <v>0.3999999999999773</v>
       </c>
+      <c r="E14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -6780,6 +7997,12 @@
       <c r="D15" t="n">
         <v>0.1024999999999991</v>
       </c>
+      <c r="E15" t="n">
+        <v>0.2599999999999998</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -6788,13 +8011,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.7199999999999989</v>
+        <v>-0.7299999999999969</v>
       </c>
       <c r="C16" t="n">
         <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.1799999999999997</v>
+        <v>-0.1824999999999992</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-1.29</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="17">
@@ -6804,13 +8033,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.00649999999999995</v>
+        <v>-0.007500000000000007</v>
       </c>
       <c r="C17" t="n">
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.001624999999999988</v>
+        <v>-0.001875000000000002</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-2.51</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.63</v>
       </c>
     </row>
     <row r="18">
@@ -6828,6 +8063,12 @@
       <c r="D18" t="n">
         <v>-0.6899999999999977</v>
       </c>
+      <c r="E18" t="n">
+        <v>-1.31</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.33</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -6844,6 +8085,12 @@
       <c r="D19" t="n">
         <v>-0.002500000000001279</v>
       </c>
+      <c r="E19" t="n">
+        <v>-0.02000000000000002</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -6860,6 +8107,12 @@
       <c r="D20" t="n">
         <v>0.7999999999999545</v>
       </c>
+      <c r="E20" t="n">
+        <v>0.1700000000000001</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -6876,6 +8129,12 @@
       <c r="D21" t="n">
         <v>-0.01000000000000512</v>
       </c>
+      <c r="E21" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -6890,6 +8149,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
